--- a/assets/results/AlignmentResults.xlsx
+++ b/assets/results/AlignmentResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sahar1/Documents/AnonGithub/anonymousResearcher24.github.io/assets/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C5F75C-CE8F-BA48-9348-4C5B2B078A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E23C6A4-55FA-7041-BA9A-8C4BEB4A27F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,54 +32,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="15">
   <si>
     <t>Subject</t>
-  </si>
-  <si>
-    <t>P for syncslice</t>
-  </si>
-  <si>
-    <t>R for syncslice</t>
-  </si>
-  <si>
-    <t>F for syncslice</t>
-  </si>
-  <si>
-    <t>P for dual</t>
-  </si>
-  <si>
-    <t>R for dual</t>
-  </si>
-  <si>
-    <t>F for dual</t>
-  </si>
-  <si>
-    <t>P for inpress</t>
-  </si>
-  <si>
-    <t>R for inpress</t>
-  </si>
-  <si>
-    <t>F for inpress</t>
-  </si>
-  <si>
-    <t>P for corexI</t>
-  </si>
-  <si>
-    <t>R for corexI</t>
-  </si>
-  <si>
-    <t>F for corexI</t>
-  </si>
-  <si>
-    <t>P for corex</t>
-  </si>
-  <si>
-    <t>R for corex</t>
-  </si>
-  <si>
-    <t>F for corex</t>
   </si>
   <si>
     <t>S1</t>
@@ -98,6 +53,30 @@
   </si>
   <si>
     <t>S6</t>
+  </si>
+  <si>
+    <t>Sync.Slice</t>
+  </si>
+  <si>
+    <t>DualSlice</t>
+  </si>
+  <si>
+    <t>InPreSS</t>
+  </si>
+  <si>
+    <t>CoReXI</t>
+  </si>
+  <si>
+    <t>CoReX</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>F-measure</t>
   </si>
 </sst>
 </file>
@@ -135,7 +114,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -158,16 +137,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,167 +479,145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{387DA05A-8AF9-134A-BE0C-B72B5C0AA3FA}">
-  <dimension ref="A1:P56"/>
+  <dimension ref="A1:P57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection sqref="A1:P57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="2">
-        <v>35.714285714285722</v>
-      </c>
-      <c r="C2" s="2">
-        <v>100</v>
-      </c>
-      <c r="D2" s="2">
-        <v>52.631578947368418</v>
-      </c>
-      <c r="E2" s="2">
-        <v>66.666666666666657</v>
-      </c>
-      <c r="F2" s="2">
-        <v>80</v>
-      </c>
-      <c r="G2" s="2">
-        <v>72.72727272727272</v>
-      </c>
-      <c r="H2" s="2">
-        <v>100</v>
-      </c>
-      <c r="I2" s="2">
-        <v>80</v>
-      </c>
-      <c r="J2" s="2">
-        <v>88.888888888888886</v>
-      </c>
-      <c r="K2" s="2">
-        <v>62.5</v>
-      </c>
-      <c r="L2" s="2">
-        <v>100</v>
-      </c>
-      <c r="M2" s="2">
-        <v>76.92307692307692</v>
-      </c>
-      <c r="N2" s="2">
-        <v>83.333333333333343</v>
-      </c>
-      <c r="O2" s="2">
-        <v>100</v>
-      </c>
-      <c r="P2" s="2">
-        <v>90.909090909090907</v>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>50</v>
+        <v>35.714285714285722</v>
       </c>
       <c r="C3" s="2">
         <v>100</v>
       </c>
       <c r="D3" s="2">
-        <v>66.666666666666671</v>
+        <v>52.631578947368418</v>
       </c>
       <c r="E3" s="2">
         <v>66.666666666666657</v>
       </c>
       <c r="F3" s="2">
-        <v>57.142857142857139</v>
+        <v>80</v>
       </c>
       <c r="G3" s="2">
-        <v>61.538461538461533</v>
+        <v>72.72727272727272</v>
       </c>
       <c r="H3" s="2">
         <v>100</v>
       </c>
       <c r="I3" s="2">
-        <v>57.142857142857139</v>
+        <v>80</v>
       </c>
       <c r="J3" s="2">
-        <v>72.72727272727272</v>
+        <v>88.888888888888886</v>
       </c>
       <c r="K3" s="2">
-        <v>75</v>
+        <v>62.5</v>
       </c>
       <c r="L3" s="2">
-        <v>85.714285714285708</v>
+        <v>100</v>
       </c>
       <c r="M3" s="2">
-        <v>80</v>
+        <v>76.92307692307692</v>
       </c>
       <c r="N3" s="2">
-        <v>100</v>
+        <v>83.333333333333343</v>
       </c>
       <c r="O3" s="2">
-        <v>85.714285714285708</v>
+        <v>100</v>
       </c>
       <c r="P3" s="2">
-        <v>92.307692307692292</v>
+        <v>90.909090909090907</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B4" s="2">
         <v>50</v>
@@ -654,13 +629,13 @@
         <v>66.666666666666671</v>
       </c>
       <c r="E4" s="2">
-        <v>83.333333333333343</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="F4" s="2">
-        <v>71.428571428571431</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="G4" s="2">
-        <v>76.923076923076934</v>
+        <v>61.538461538461533</v>
       </c>
       <c r="H4" s="2">
         <v>100</v>
@@ -692,57 +667,57 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B5" s="2">
-        <v>35.714285714285722</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2">
         <v>100</v>
       </c>
       <c r="D5" s="2">
-        <v>52.631578947368418</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="E5" s="2">
-        <v>66.666666666666657</v>
+        <v>83.333333333333343</v>
       </c>
       <c r="F5" s="2">
-        <v>80</v>
+        <v>71.428571428571431</v>
       </c>
       <c r="G5" s="2">
+        <v>76.923076923076934</v>
+      </c>
+      <c r="H5" s="2">
+        <v>100</v>
+      </c>
+      <c r="I5" s="2">
+        <v>57.142857142857139</v>
+      </c>
+      <c r="J5" s="2">
         <v>72.72727272727272</v>
       </c>
-      <c r="H5" s="2">
-        <v>100</v>
-      </c>
-      <c r="I5" s="2">
-        <v>80</v>
-      </c>
-      <c r="J5" s="2">
-        <v>88.888888888888886</v>
-      </c>
       <c r="K5" s="2">
-        <v>62.5</v>
+        <v>75</v>
       </c>
       <c r="L5" s="2">
-        <v>100</v>
+        <v>85.714285714285708</v>
       </c>
       <c r="M5" s="2">
-        <v>76.92307692307692</v>
+        <v>80</v>
       </c>
       <c r="N5" s="2">
-        <v>83.333333333333343</v>
+        <v>100</v>
       </c>
       <c r="O5" s="2">
-        <v>100</v>
+        <v>85.714285714285708</v>
       </c>
       <c r="P5" s="2">
-        <v>90.909090909090907</v>
+        <v>92.307692307692292</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B6" s="2">
         <v>35.714285714285722</v>
@@ -754,22 +729,22 @@
         <v>52.631578947368418</v>
       </c>
       <c r="E6" s="2">
-        <v>50</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="F6" s="2">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G6" s="2">
-        <v>54.545454545454547</v>
+        <v>72.72727272727272</v>
       </c>
       <c r="H6" s="2">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="I6" s="2">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="J6" s="2">
-        <v>66.666666666666671</v>
+        <v>88.888888888888886</v>
       </c>
       <c r="K6" s="2">
         <v>62.5</v>
@@ -792,7 +767,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B7" s="2">
         <v>35.714285714285722</v>
@@ -842,257 +817,257 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B8" s="2">
-        <v>42.857142857142847</v>
+        <v>35.714285714285722</v>
       </c>
       <c r="C8" s="2">
         <v>100</v>
       </c>
       <c r="D8" s="2">
-        <v>59.999999999999993</v>
+        <v>52.631578947368418</v>
       </c>
       <c r="E8" s="2">
-        <v>66.666666666666657</v>
+        <v>50</v>
       </c>
       <c r="F8" s="2">
-        <v>66.666666666666657</v>
+        <v>60</v>
       </c>
       <c r="G8" s="2">
-        <v>66.666666666666657</v>
+        <v>54.545454545454547</v>
       </c>
       <c r="H8" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="I8" s="2">
-        <v>66.666666666666657</v>
+        <v>60</v>
       </c>
       <c r="J8" s="2">
-        <v>80</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="K8" s="2">
-        <v>75</v>
+        <v>62.5</v>
       </c>
       <c r="L8" s="2">
         <v>100</v>
       </c>
       <c r="M8" s="2">
-        <v>85.714285714285708</v>
+        <v>76.92307692307692</v>
       </c>
       <c r="N8" s="2">
-        <v>100</v>
+        <v>83.333333333333343</v>
       </c>
       <c r="O8" s="2">
         <v>100</v>
       </c>
       <c r="P8" s="2">
-        <v>100</v>
+        <v>90.909090909090907</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B9" s="2">
-        <v>35.714285714285722</v>
+        <v>42.857142857142847</v>
       </c>
       <c r="C9" s="2">
         <v>100</v>
       </c>
       <c r="D9" s="2">
-        <v>52.631578947368418</v>
+        <v>59.999999999999993</v>
       </c>
       <c r="E9" s="2">
-        <v>33.333333333333329</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="F9" s="2">
-        <v>40</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="G9" s="2">
-        <v>36.36363636363636</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="H9" s="2">
-        <v>66.666666666666657</v>
+        <v>100</v>
       </c>
       <c r="I9" s="2">
-        <v>40</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="J9" s="2">
-        <v>49.999999999999993</v>
+        <v>80</v>
       </c>
       <c r="K9" s="2">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="L9" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="M9" s="2">
-        <v>61.53846153846154</v>
+        <v>85.714285714285708</v>
       </c>
       <c r="N9" s="2">
-        <v>66.666666666666657</v>
+        <v>100</v>
       </c>
       <c r="O9" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="P9" s="2">
-        <v>72.72727272727272</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B10" s="2">
-        <v>42.857142857142847</v>
+        <v>35.714285714285722</v>
       </c>
       <c r="C10" s="2">
         <v>100</v>
       </c>
       <c r="D10" s="2">
-        <v>59.999999999999993</v>
+        <v>52.631578947368418</v>
       </c>
       <c r="E10" s="2">
-        <v>66.666666666666657</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="F10" s="2">
-        <v>66.666666666666657</v>
+        <v>40</v>
       </c>
       <c r="G10" s="2">
-        <v>66.666666666666657</v>
+        <v>36.36363636363636</v>
       </c>
       <c r="H10" s="2">
-        <v>100</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="I10" s="2">
-        <v>66.666666666666657</v>
+        <v>40</v>
       </c>
       <c r="J10" s="2">
-        <v>80</v>
+        <v>49.999999999999993</v>
       </c>
       <c r="K10" s="2">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="L10" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="M10" s="2">
-        <v>85.714285714285708</v>
+        <v>61.53846153846154</v>
       </c>
       <c r="N10" s="2">
-        <v>100</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="O10" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="P10" s="2">
-        <v>100</v>
+        <v>72.72727272727272</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B11" s="2">
-        <v>44.444444444444443</v>
+        <v>42.857142857142847</v>
       </c>
       <c r="C11" s="2">
         <v>100</v>
       </c>
       <c r="D11" s="2">
-        <v>61.538461538461533</v>
+        <v>59.999999999999993</v>
       </c>
       <c r="E11" s="2">
-        <v>85.714285714285708</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="F11" s="2">
-        <v>75</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="G11" s="2">
-        <v>80</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="H11" s="2">
         <v>100</v>
       </c>
       <c r="I11" s="2">
-        <v>62.5</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="J11" s="2">
-        <v>76.92307692307692</v>
+        <v>80</v>
       </c>
       <c r="K11" s="2">
-        <v>77.777777777777786</v>
+        <v>75</v>
       </c>
       <c r="L11" s="2">
-        <v>87.5</v>
+        <v>100</v>
       </c>
       <c r="M11" s="2">
-        <v>82.352941176470608</v>
+        <v>85.714285714285708</v>
       </c>
       <c r="N11" s="2">
         <v>100</v>
       </c>
       <c r="O11" s="2">
-        <v>87.5</v>
+        <v>100</v>
       </c>
       <c r="P11" s="2">
-        <v>93.333333333333329</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B12" s="2">
-        <v>38.888888888888893</v>
+        <v>44.444444444444443</v>
       </c>
       <c r="C12" s="2">
         <v>100</v>
       </c>
       <c r="D12" s="2">
-        <v>56.000000000000007</v>
+        <v>61.538461538461533</v>
       </c>
       <c r="E12" s="2">
-        <v>71.428571428571431</v>
+        <v>85.714285714285708</v>
       </c>
       <c r="F12" s="2">
-        <v>71.428571428571431</v>
+        <v>75</v>
       </c>
       <c r="G12" s="2">
-        <v>71.428571428571431</v>
+        <v>80</v>
       </c>
       <c r="H12" s="2">
         <v>100</v>
       </c>
       <c r="I12" s="2">
-        <v>71.428571428571431</v>
+        <v>62.5</v>
       </c>
       <c r="J12" s="2">
-        <v>83.333333333333329</v>
+        <v>76.92307692307692</v>
       </c>
       <c r="K12" s="2">
         <v>77.777777777777786</v>
       </c>
       <c r="L12" s="2">
-        <v>100</v>
+        <v>87.5</v>
       </c>
       <c r="M12" s="2">
-        <v>87.500000000000014</v>
+        <v>82.352941176470608</v>
       </c>
       <c r="N12" s="2">
         <v>100</v>
       </c>
       <c r="O12" s="2">
-        <v>100</v>
+        <v>87.5</v>
       </c>
       <c r="P12" s="2">
-        <v>100</v>
+        <v>93.333333333333329</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B13" s="2">
         <v>38.888888888888893</v>
@@ -1104,13 +1079,13 @@
         <v>56.000000000000007</v>
       </c>
       <c r="E13" s="2">
-        <v>85.714285714285708</v>
+        <v>71.428571428571431</v>
       </c>
       <c r="F13" s="2">
-        <v>85.714285714285708</v>
+        <v>71.428571428571431</v>
       </c>
       <c r="G13" s="2">
-        <v>85.714285714285708</v>
+        <v>71.428571428571431</v>
       </c>
       <c r="H13" s="2">
         <v>100</v>
@@ -1122,177 +1097,177 @@
         <v>83.333333333333329</v>
       </c>
       <c r="K13" s="2">
-        <v>66.666666666666657</v>
+        <v>77.777777777777786</v>
       </c>
       <c r="L13" s="2">
-        <v>85.714285714285708</v>
+        <v>100</v>
       </c>
       <c r="M13" s="2">
-        <v>75</v>
+        <v>87.500000000000014</v>
       </c>
       <c r="N13" s="2">
-        <v>85.714285714285708</v>
+        <v>100</v>
       </c>
       <c r="O13" s="2">
-        <v>85.714285714285708</v>
+        <v>100</v>
       </c>
       <c r="P13" s="2">
-        <v>85.714285714285708</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B14" s="2">
-        <v>44.444444444444443</v>
+        <v>38.888888888888893</v>
       </c>
       <c r="C14" s="2">
         <v>100</v>
       </c>
       <c r="D14" s="2">
-        <v>61.538461538461533</v>
+        <v>56.000000000000007</v>
       </c>
       <c r="E14" s="2">
         <v>85.714285714285708</v>
       </c>
       <c r="F14" s="2">
-        <v>75</v>
+        <v>85.714285714285708</v>
       </c>
       <c r="G14" s="2">
-        <v>80</v>
+        <v>85.714285714285708</v>
       </c>
       <c r="H14" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I14" s="2">
-        <v>50</v>
+        <v>71.428571428571431</v>
       </c>
       <c r="J14" s="2">
-        <v>61.53846153846154</v>
+        <v>83.333333333333329</v>
       </c>
       <c r="K14" s="2">
         <v>66.666666666666657</v>
       </c>
       <c r="L14" s="2">
-        <v>75</v>
+        <v>85.714285714285708</v>
       </c>
       <c r="M14" s="2">
-        <v>70.588235294117638</v>
+        <v>75</v>
       </c>
       <c r="N14" s="2">
         <v>85.714285714285708</v>
       </c>
       <c r="O14" s="2">
-        <v>75</v>
+        <v>85.714285714285708</v>
       </c>
       <c r="P14" s="2">
-        <v>80</v>
+        <v>85.714285714285708</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B15" s="2">
-        <v>33.333333333333329</v>
+        <v>44.444444444444443</v>
       </c>
       <c r="C15" s="2">
         <v>100</v>
       </c>
       <c r="D15" s="2">
+        <v>61.538461538461533</v>
+      </c>
+      <c r="E15" s="2">
+        <v>85.714285714285708</v>
+      </c>
+      <c r="F15" s="2">
+        <v>75</v>
+      </c>
+      <c r="G15" s="2">
+        <v>80</v>
+      </c>
+      <c r="H15" s="2">
+        <v>80</v>
+      </c>
+      <c r="I15" s="2">
         <v>50</v>
       </c>
-      <c r="E15" s="2">
-        <v>57.142857142857139</v>
-      </c>
-      <c r="F15" s="2">
-        <v>66.666666666666657</v>
-      </c>
-      <c r="G15" s="2">
-        <v>61.538461538461533</v>
-      </c>
-      <c r="H15" s="2">
-        <v>80</v>
-      </c>
-      <c r="I15" s="2">
-        <v>66.666666666666657</v>
-      </c>
       <c r="J15" s="2">
-        <v>72.72727272727272</v>
+        <v>61.53846153846154</v>
       </c>
       <c r="K15" s="2">
         <v>66.666666666666657</v>
       </c>
       <c r="L15" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="M15" s="2">
-        <v>80</v>
+        <v>70.588235294117638</v>
       </c>
       <c r="N15" s="2">
         <v>85.714285714285708</v>
       </c>
       <c r="O15" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="P15" s="2">
-        <v>92.307692307692292</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B16" s="2">
-        <v>22.222222222222221</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="C16" s="2">
         <v>100</v>
       </c>
       <c r="D16" s="2">
-        <v>36.36363636363636</v>
+        <v>50</v>
       </c>
       <c r="E16" s="2">
         <v>57.142857142857139</v>
       </c>
       <c r="F16" s="2">
-        <v>100</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="G16" s="2">
+        <v>61.538461538461533</v>
+      </c>
+      <c r="H16" s="2">
+        <v>80</v>
+      </c>
+      <c r="I16" s="2">
+        <v>66.666666666666657</v>
+      </c>
+      <c r="J16" s="2">
         <v>72.72727272727272</v>
       </c>
-      <c r="H16" s="2">
-        <v>80</v>
-      </c>
-      <c r="I16" s="2">
-        <v>100</v>
-      </c>
-      <c r="J16" s="2">
-        <v>88.888888888888886</v>
-      </c>
       <c r="K16" s="2">
-        <v>44.444444444444443</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="L16" s="2">
         <v>100</v>
       </c>
       <c r="M16" s="2">
-        <v>61.538461538461533</v>
+        <v>80</v>
       </c>
       <c r="N16" s="2">
-        <v>57.142857142857139</v>
+        <v>85.714285714285708</v>
       </c>
       <c r="O16" s="2">
         <v>100</v>
       </c>
       <c r="P16" s="2">
-        <v>72.72727272727272</v>
+        <v>92.307692307692292</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B17" s="2">
         <v>22.222222222222221</v>
@@ -1304,22 +1279,22 @@
         <v>36.36363636363636</v>
       </c>
       <c r="E17" s="2">
-        <v>42.857142857142847</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="F17" s="2">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="G17" s="2">
-        <v>54.54545454545454</v>
+        <v>72.72727272727272</v>
       </c>
       <c r="H17" s="2">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="I17" s="2">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="J17" s="2">
-        <v>66.666666666666671</v>
+        <v>88.888888888888886</v>
       </c>
       <c r="K17" s="2">
         <v>44.444444444444443</v>
@@ -1342,443 +1317,443 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B18" s="2">
-        <v>38.888888888888893</v>
+        <v>22.222222222222221</v>
       </c>
       <c r="C18" s="2">
         <v>100</v>
       </c>
       <c r="D18" s="2">
-        <v>56.000000000000007</v>
+        <v>36.36363636363636</v>
       </c>
       <c r="E18" s="2">
-        <v>71.428571428571431</v>
+        <v>42.857142857142847</v>
       </c>
       <c r="F18" s="2">
-        <v>71.428571428571431</v>
+        <v>75</v>
       </c>
       <c r="G18" s="2">
-        <v>71.428571428571431</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="H18" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="I18" s="2">
-        <v>71.428571428571431</v>
+        <v>75</v>
       </c>
       <c r="J18" s="2">
-        <v>83.333333333333329</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="K18" s="2">
-        <v>77.777777777777786</v>
+        <v>44.444444444444443</v>
       </c>
       <c r="L18" s="2">
         <v>100</v>
       </c>
       <c r="M18" s="2">
-        <v>87.500000000000014</v>
+        <v>61.538461538461533</v>
       </c>
       <c r="N18" s="2">
-        <v>100</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="O18" s="2">
         <v>100</v>
       </c>
       <c r="P18" s="2">
-        <v>100</v>
+        <v>72.72727272727272</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B19" s="2">
-        <v>22.222222222222221</v>
+        <v>38.888888888888893</v>
       </c>
       <c r="C19" s="2">
         <v>100</v>
       </c>
       <c r="D19" s="2">
-        <v>36.36363636363636</v>
+        <v>56.000000000000007</v>
       </c>
       <c r="E19" s="2">
-        <v>57.142857142857139</v>
+        <v>71.428571428571431</v>
       </c>
       <c r="F19" s="2">
-        <v>100</v>
+        <v>71.428571428571431</v>
       </c>
       <c r="G19" s="2">
-        <v>72.72727272727272</v>
+        <v>71.428571428571431</v>
       </c>
       <c r="H19" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I19" s="2">
-        <v>100</v>
+        <v>71.428571428571431</v>
       </c>
       <c r="J19" s="2">
-        <v>88.888888888888886</v>
+        <v>83.333333333333329</v>
       </c>
       <c r="K19" s="2">
-        <v>44.444444444444443</v>
+        <v>77.777777777777786</v>
       </c>
       <c r="L19" s="2">
         <v>100</v>
       </c>
       <c r="M19" s="2">
-        <v>61.538461538461533</v>
+        <v>87.500000000000014</v>
       </c>
       <c r="N19" s="2">
-        <v>57.142857142857139</v>
+        <v>100</v>
       </c>
       <c r="O19" s="2">
         <v>100</v>
       </c>
       <c r="P19" s="2">
-        <v>72.72727272727272</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B20" s="2">
-        <v>47.368421052631582</v>
+        <v>22.222222222222221</v>
       </c>
       <c r="C20" s="2">
         <v>100</v>
       </c>
       <c r="D20" s="2">
-        <v>64.285714285714292</v>
+        <v>36.36363636363636</v>
       </c>
       <c r="E20" s="2">
-        <v>66.666666666666657</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="F20" s="2">
+        <v>100</v>
+      </c>
+      <c r="G20" s="2">
+        <v>72.72727272727272</v>
+      </c>
+      <c r="H20" s="2">
+        <v>80</v>
+      </c>
+      <c r="I20" s="2">
+        <v>100</v>
+      </c>
+      <c r="J20" s="2">
         <v>88.888888888888886</v>
       </c>
-      <c r="G20" s="2">
-        <v>76.19047619047619</v>
-      </c>
-      <c r="H20" s="2">
-        <v>100</v>
-      </c>
-      <c r="I20" s="2">
-        <v>66.666666666666657</v>
-      </c>
-      <c r="J20" s="2">
-        <v>80</v>
-      </c>
       <c r="K20" s="2">
-        <v>81.818181818181827</v>
+        <v>44.444444444444443</v>
       </c>
       <c r="L20" s="2">
         <v>100</v>
       </c>
       <c r="M20" s="2">
-        <v>90.000000000000014</v>
+        <v>61.538461538461533</v>
       </c>
       <c r="N20" s="2">
-        <v>90</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="O20" s="2">
         <v>100</v>
       </c>
       <c r="P20" s="2">
-        <v>94.736842105263165</v>
+        <v>72.72727272727272</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B21" s="2">
-        <v>57.894736842105267</v>
+        <v>47.368421052631582</v>
       </c>
       <c r="C21" s="2">
         <v>100</v>
       </c>
       <c r="D21" s="2">
-        <v>73.333333333333343</v>
+        <v>64.285714285714292</v>
       </c>
       <c r="E21" s="2">
-        <v>83.333333333333343</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="F21" s="2">
-        <v>90.909090909090907</v>
+        <v>88.888888888888886</v>
       </c>
       <c r="G21" s="2">
-        <v>86.956521739130437</v>
+        <v>76.19047619047619</v>
       </c>
       <c r="H21" s="2">
         <v>100</v>
       </c>
       <c r="I21" s="2">
-        <v>54.54545454545454</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="J21" s="2">
-        <v>70.588235294117652</v>
+        <v>80</v>
       </c>
       <c r="K21" s="2">
         <v>81.818181818181827</v>
       </c>
       <c r="L21" s="2">
-        <v>81.818181818181827</v>
+        <v>100</v>
       </c>
       <c r="M21" s="2">
-        <v>81.818181818181827</v>
+        <v>90.000000000000014</v>
       </c>
       <c r="N21" s="2">
         <v>90</v>
       </c>
       <c r="O21" s="2">
-        <v>81.818181818181827</v>
+        <v>100</v>
       </c>
       <c r="P21" s="2">
-        <v>85.714285714285737</v>
+        <v>94.736842105263165</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B22" s="2">
-        <v>78.94736842105263</v>
+        <v>57.894736842105267</v>
       </c>
       <c r="C22" s="2">
         <v>100</v>
       </c>
       <c r="D22" s="2">
-        <v>88.235294117647058</v>
+        <v>73.333333333333343</v>
       </c>
       <c r="E22" s="2">
-        <v>91.666666666666657</v>
+        <v>83.333333333333343</v>
       </c>
       <c r="F22" s="2">
-        <v>73.333333333333329</v>
+        <v>90.909090909090907</v>
       </c>
       <c r="G22" s="2">
-        <v>81.481481481481467</v>
+        <v>86.956521739130437</v>
       </c>
       <c r="H22" s="2">
         <v>100</v>
       </c>
       <c r="I22" s="2">
-        <v>40</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="J22" s="2">
-        <v>57.142857142857153</v>
+        <v>70.588235294117652</v>
       </c>
       <c r="K22" s="2">
-        <v>72.727272727272734</v>
+        <v>81.818181818181827</v>
       </c>
       <c r="L22" s="2">
-        <v>53.333333333333343</v>
+        <v>81.818181818181827</v>
       </c>
       <c r="M22" s="2">
-        <v>61.538461538461547</v>
+        <v>81.818181818181827</v>
       </c>
       <c r="N22" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="O22" s="2">
-        <v>53.333333333333343</v>
+        <v>81.818181818181827</v>
       </c>
       <c r="P22" s="2">
-        <v>64</v>
+        <v>85.714285714285737</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B23" s="2">
-        <v>57.894736842105267</v>
+        <v>78.94736842105263</v>
       </c>
       <c r="C23" s="2">
         <v>100</v>
       </c>
       <c r="D23" s="2">
-        <v>73.333333333333343</v>
+        <v>88.235294117647058</v>
       </c>
       <c r="E23" s="2">
-        <v>58.333333333333343</v>
+        <v>91.666666666666657</v>
       </c>
       <c r="F23" s="2">
-        <v>63.636363636363633</v>
+        <v>73.333333333333329</v>
       </c>
       <c r="G23" s="2">
-        <v>60.869565217391298</v>
+        <v>81.481481481481467</v>
       </c>
       <c r="H23" s="2">
         <v>100</v>
       </c>
       <c r="I23" s="2">
-        <v>45.454545454545453</v>
+        <v>40</v>
       </c>
       <c r="J23" s="2">
-        <v>62.5</v>
+        <v>57.142857142857153</v>
       </c>
       <c r="K23" s="2">
-        <v>80</v>
+        <v>72.727272727272734</v>
       </c>
       <c r="L23" s="2">
-        <v>72.727272727272734</v>
+        <v>53.333333333333343</v>
       </c>
       <c r="M23" s="2">
-        <v>76.19047619047619</v>
+        <v>61.538461538461547</v>
       </c>
       <c r="N23" s="2">
-        <v>88.888888888888886</v>
+        <v>80</v>
       </c>
       <c r="O23" s="2">
-        <v>72.727272727272734</v>
+        <v>53.333333333333343</v>
       </c>
       <c r="P23" s="2">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B24" s="2">
-        <v>42.105263157894733</v>
+        <v>57.894736842105267</v>
       </c>
       <c r="C24" s="2">
         <v>100</v>
       </c>
       <c r="D24" s="2">
-        <v>59.259259259259252</v>
+        <v>73.333333333333343</v>
       </c>
       <c r="E24" s="2">
         <v>58.333333333333343</v>
       </c>
       <c r="F24" s="2">
-        <v>87.5</v>
+        <v>63.636363636363633</v>
       </c>
       <c r="G24" s="2">
-        <v>70</v>
+        <v>60.869565217391298</v>
       </c>
       <c r="H24" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I24" s="2">
-        <v>50</v>
+        <v>45.454545454545453</v>
       </c>
       <c r="J24" s="2">
-        <v>61.53846153846154</v>
+        <v>62.5</v>
       </c>
       <c r="K24" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="L24" s="2">
-        <v>87.5</v>
+        <v>72.727272727272734</v>
       </c>
       <c r="M24" s="2">
-        <v>77.777777777777771</v>
+        <v>76.19047619047619</v>
       </c>
       <c r="N24" s="2">
-        <v>77.777777777777786</v>
+        <v>88.888888888888886</v>
       </c>
       <c r="O24" s="2">
-        <v>87.5</v>
+        <v>72.727272727272734</v>
       </c>
       <c r="P24" s="2">
-        <v>82.352941176470608</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B25" s="2">
-        <v>26.315789473684209</v>
+        <v>42.105263157894733</v>
       </c>
       <c r="C25" s="2">
         <v>100</v>
       </c>
       <c r="D25" s="2">
-        <v>41.666666666666657</v>
+        <v>59.259259259259252</v>
       </c>
       <c r="E25" s="2">
-        <v>41.666666666666671</v>
+        <v>58.333333333333343</v>
       </c>
       <c r="F25" s="2">
-        <v>100</v>
+        <v>87.5</v>
       </c>
       <c r="G25" s="2">
-        <v>58.823529411764703</v>
+        <v>70</v>
       </c>
       <c r="H25" s="2">
         <v>80</v>
       </c>
       <c r="I25" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="J25" s="2">
-        <v>80</v>
+        <v>61.53846153846154</v>
       </c>
       <c r="K25" s="2">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="L25" s="2">
-        <v>100</v>
+        <v>87.5</v>
       </c>
       <c r="M25" s="2">
-        <v>66.666666666666671</v>
+        <v>77.777777777777771</v>
       </c>
       <c r="N25" s="2">
-        <v>100</v>
+        <v>77.777777777777786</v>
       </c>
       <c r="O25" s="2">
-        <v>100</v>
+        <v>87.5</v>
       </c>
       <c r="P25" s="2">
-        <v>100</v>
+        <v>82.352941176470608</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B26" s="2">
-        <v>31.578947368421051</v>
+        <v>26.315789473684209</v>
       </c>
       <c r="C26" s="2">
         <v>100</v>
       </c>
       <c r="D26" s="2">
-        <v>48</v>
+        <v>41.666666666666657</v>
       </c>
       <c r="E26" s="2">
+        <v>41.666666666666671</v>
+      </c>
+      <c r="F26" s="2">
+        <v>100</v>
+      </c>
+      <c r="G26" s="2">
+        <v>58.823529411764703</v>
+      </c>
+      <c r="H26" s="2">
+        <v>80</v>
+      </c>
+      <c r="I26" s="2">
+        <v>80</v>
+      </c>
+      <c r="J26" s="2">
+        <v>80</v>
+      </c>
+      <c r="K26" s="2">
         <v>50</v>
       </c>
-      <c r="F26" s="2">
-        <v>100</v>
-      </c>
-      <c r="G26" s="2">
+      <c r="L26" s="2">
+        <v>100</v>
+      </c>
+      <c r="M26" s="2">
         <v>66.666666666666671</v>
-      </c>
-      <c r="H26" s="2">
-        <v>80</v>
-      </c>
-      <c r="I26" s="2">
-        <v>66.666666666666657</v>
-      </c>
-      <c r="J26" s="2">
-        <v>72.72727272727272</v>
-      </c>
-      <c r="K26" s="2">
-        <v>60</v>
-      </c>
-      <c r="L26" s="2">
-        <v>100</v>
-      </c>
-      <c r="M26" s="2">
-        <v>75</v>
       </c>
       <c r="N26" s="2">
         <v>100</v>
@@ -1792,7 +1767,7 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B27" s="2">
         <v>31.578947368421051</v>
@@ -1804,13 +1779,13 @@
         <v>48</v>
       </c>
       <c r="E27" s="2">
-        <v>41.666666666666671</v>
+        <v>50</v>
       </c>
       <c r="F27" s="2">
-        <v>83.333333333333343</v>
+        <v>100</v>
       </c>
       <c r="G27" s="2">
-        <v>55.555555555555557</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="H27" s="2">
         <v>80</v>
@@ -1842,657 +1817,657 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B28" s="2">
-        <v>47.368421052631582</v>
+        <v>31.578947368421051</v>
       </c>
       <c r="C28" s="2">
         <v>100</v>
       </c>
       <c r="D28" s="2">
-        <v>64.285714285714292</v>
+        <v>48</v>
       </c>
       <c r="E28" s="2">
-        <v>66.666666666666657</v>
+        <v>41.666666666666671</v>
       </c>
       <c r="F28" s="2">
-        <v>88.888888888888886</v>
+        <v>83.333333333333343</v>
       </c>
       <c r="G28" s="2">
-        <v>76.19047619047619</v>
+        <v>55.555555555555557</v>
       </c>
       <c r="H28" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I28" s="2">
-        <v>55.555555555555557</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="J28" s="2">
-        <v>71.428571428571431</v>
+        <v>72.72727272727272</v>
       </c>
       <c r="K28" s="2">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="L28" s="2">
-        <v>77.777777777777786</v>
+        <v>100</v>
       </c>
       <c r="M28" s="2">
-        <v>73.684210526315809</v>
+        <v>75</v>
       </c>
       <c r="N28" s="2">
-        <v>77.777777777777786</v>
+        <v>100</v>
       </c>
       <c r="O28" s="2">
-        <v>77.777777777777786</v>
+        <v>100</v>
       </c>
       <c r="P28" s="2">
-        <v>77.777777777777786</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B29" s="2">
-        <v>66.666666666666657</v>
+        <v>47.368421052631582</v>
       </c>
       <c r="C29" s="2">
         <v>100</v>
       </c>
       <c r="D29" s="2">
-        <v>80</v>
+        <v>64.285714285714292</v>
       </c>
       <c r="E29" s="2">
-        <v>83.333333333333343</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="F29" s="2">
-        <v>62.5</v>
+        <v>88.888888888888886</v>
       </c>
       <c r="G29" s="2">
+        <v>76.19047619047619</v>
+      </c>
+      <c r="H29" s="2">
+        <v>100</v>
+      </c>
+      <c r="I29" s="2">
+        <v>55.555555555555557</v>
+      </c>
+      <c r="J29" s="2">
         <v>71.428571428571431</v>
       </c>
-      <c r="H29" s="2">
-        <v>100</v>
-      </c>
-      <c r="I29" s="2">
-        <v>62.5</v>
-      </c>
-      <c r="J29" s="2">
-        <v>76.92307692307692</v>
-      </c>
       <c r="K29" s="2">
-        <v>85.714285714285708</v>
+        <v>70</v>
       </c>
       <c r="L29" s="2">
-        <v>75</v>
+        <v>77.777777777777786</v>
       </c>
       <c r="M29" s="2">
-        <v>80</v>
+        <v>73.684210526315809</v>
       </c>
       <c r="N29" s="2">
-        <v>100</v>
+        <v>77.777777777777786</v>
       </c>
       <c r="O29" s="2">
-        <v>75</v>
+        <v>77.777777777777786</v>
       </c>
       <c r="P29" s="2">
-        <v>85.714285714285708</v>
+        <v>77.777777777777786</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B30" s="2">
-        <v>50</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="C30" s="2">
         <v>100</v>
       </c>
       <c r="D30" s="2">
-        <v>66.666666666666671</v>
+        <v>80</v>
       </c>
       <c r="E30" s="2">
-        <v>66.666666666666657</v>
+        <v>83.333333333333343</v>
       </c>
       <c r="F30" s="2">
-        <v>66.666666666666657</v>
+        <v>62.5</v>
       </c>
       <c r="G30" s="2">
-        <v>66.666666666666657</v>
+        <v>71.428571428571431</v>
       </c>
       <c r="H30" s="2">
         <v>100</v>
       </c>
       <c r="I30" s="2">
-        <v>83.333333333333343</v>
+        <v>62.5</v>
       </c>
       <c r="J30" s="2">
-        <v>90.909090909090907</v>
+        <v>76.92307692307692</v>
       </c>
       <c r="K30" s="2">
         <v>85.714285714285708</v>
       </c>
       <c r="L30" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="M30" s="2">
-        <v>92.307692307692292</v>
+        <v>80</v>
       </c>
       <c r="N30" s="2">
         <v>100</v>
       </c>
       <c r="O30" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="P30" s="2">
-        <v>100</v>
+        <v>85.714285714285708</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B31" s="2">
-        <v>33.333333333333329</v>
+        <v>50</v>
       </c>
       <c r="C31" s="2">
         <v>100</v>
       </c>
       <c r="D31" s="2">
-        <v>50</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="E31" s="2">
-        <v>50</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="F31" s="2">
-        <v>75</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="G31" s="2">
-        <v>60</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="H31" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="I31" s="2">
-        <v>75</v>
+        <v>83.333333333333343</v>
       </c>
       <c r="J31" s="2">
-        <v>66.666666666666671</v>
+        <v>90.909090909090907</v>
       </c>
       <c r="K31" s="2">
-        <v>57.142857142857139</v>
+        <v>85.714285714285708</v>
       </c>
       <c r="L31" s="2">
         <v>100</v>
       </c>
       <c r="M31" s="2">
-        <v>72.72727272727272</v>
+        <v>92.307692307692292</v>
       </c>
       <c r="N31" s="2">
-        <v>66.666666666666657</v>
+        <v>100</v>
       </c>
       <c r="O31" s="2">
         <v>100</v>
       </c>
       <c r="P31" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B32" s="2">
-        <v>41.666666666666671</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="C32" s="2">
         <v>100</v>
       </c>
       <c r="D32" s="2">
-        <v>58.823529411764703</v>
+        <v>50</v>
       </c>
       <c r="E32" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F32" s="2">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="G32" s="2">
         <v>60</v>
       </c>
       <c r="H32" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="I32" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="J32" s="2">
-        <v>88.888888888888886</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="K32" s="2">
-        <v>83.333333333333343</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="L32" s="2">
         <v>100</v>
       </c>
       <c r="M32" s="2">
-        <v>90.909090909090907</v>
+        <v>72.72727272727272</v>
       </c>
       <c r="N32" s="2">
-        <v>100</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="O32" s="2">
         <v>100</v>
       </c>
       <c r="P32" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B33" s="2">
-        <v>33.333333333333329</v>
+        <v>41.666666666666671</v>
       </c>
       <c r="C33" s="2">
         <v>100</v>
       </c>
       <c r="D33" s="2">
-        <v>50</v>
+        <v>58.823529411764703</v>
       </c>
       <c r="E33" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F33" s="2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G33" s="2">
-        <v>44.444444444444443</v>
+        <v>60</v>
       </c>
       <c r="H33" s="2">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="I33" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J33" s="2">
-        <v>75</v>
+        <v>88.888888888888886</v>
       </c>
       <c r="K33" s="2">
-        <v>66.666666666666657</v>
+        <v>83.333333333333343</v>
       </c>
       <c r="L33" s="2">
         <v>100</v>
       </c>
       <c r="M33" s="2">
-        <v>80</v>
+        <v>90.909090909090907</v>
       </c>
       <c r="N33" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="O33" s="2">
         <v>100</v>
       </c>
       <c r="P33" s="2">
-        <v>88.888888888888886</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B34" s="2">
-        <v>41.666666666666671</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="C34" s="2">
         <v>100</v>
       </c>
       <c r="D34" s="2">
-        <v>58.823529411764703</v>
+        <v>50</v>
       </c>
       <c r="E34" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F34" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G34" s="2">
-        <v>60</v>
+        <v>44.444444444444443</v>
       </c>
       <c r="H34" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="I34" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="J34" s="2">
+        <v>75</v>
+      </c>
+      <c r="K34" s="2">
+        <v>66.666666666666657</v>
+      </c>
+      <c r="L34" s="2">
+        <v>100</v>
+      </c>
+      <c r="M34" s="2">
+        <v>80</v>
+      </c>
+      <c r="N34" s="2">
+        <v>80</v>
+      </c>
+      <c r="O34" s="2">
+        <v>100</v>
+      </c>
+      <c r="P34" s="2">
         <v>88.888888888888886</v>
-      </c>
-      <c r="K34" s="2">
-        <v>83.333333333333343</v>
-      </c>
-      <c r="L34" s="2">
-        <v>100</v>
-      </c>
-      <c r="M34" s="2">
-        <v>90.909090909090907</v>
-      </c>
-      <c r="N34" s="2">
-        <v>100</v>
-      </c>
-      <c r="O34" s="2">
-        <v>100</v>
-      </c>
-      <c r="P34" s="2">
-        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B35" s="2">
-        <v>33.333333333333329</v>
+        <v>41.666666666666671</v>
       </c>
       <c r="C35" s="2">
         <v>100</v>
       </c>
       <c r="D35" s="2">
-        <v>50</v>
+        <v>58.823529411764703</v>
       </c>
       <c r="E35" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F35" s="2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G35" s="2">
-        <v>44.444444444444443</v>
+        <v>60</v>
       </c>
       <c r="H35" s="2">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="I35" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J35" s="2">
-        <v>75</v>
+        <v>88.888888888888886</v>
       </c>
       <c r="K35" s="2">
-        <v>66.666666666666657</v>
+        <v>83.333333333333343</v>
       </c>
       <c r="L35" s="2">
         <v>100</v>
       </c>
       <c r="M35" s="2">
-        <v>80</v>
+        <v>90.909090909090907</v>
       </c>
       <c r="N35" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="O35" s="2">
         <v>100</v>
       </c>
       <c r="P35" s="2">
-        <v>88.888888888888886</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B36" s="2">
-        <v>25</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="C36" s="2">
         <v>100</v>
       </c>
       <c r="D36" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E36" s="2">
         <v>40</v>
       </c>
       <c r="F36" s="2">
-        <v>66.666666666666657</v>
+        <v>50</v>
       </c>
       <c r="G36" s="2">
-        <v>49.999999999999993</v>
+        <v>44.444444444444443</v>
       </c>
       <c r="H36" s="2">
-        <v>66.666666666666657</v>
+        <v>75</v>
       </c>
       <c r="I36" s="2">
-        <v>66.666666666666657</v>
+        <v>75</v>
       </c>
       <c r="J36" s="2">
-        <v>66.666666666666657</v>
+        <v>75</v>
       </c>
       <c r="K36" s="2">
-        <v>50</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="L36" s="2">
         <v>100</v>
       </c>
       <c r="M36" s="2">
-        <v>66.666666666666671</v>
+        <v>80</v>
       </c>
       <c r="N36" s="2">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="O36" s="2">
         <v>100</v>
       </c>
       <c r="P36" s="2">
-        <v>75</v>
+        <v>88.888888888888886</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B37" s="2">
-        <v>41.666666666666671</v>
+        <v>25</v>
       </c>
       <c r="C37" s="2">
         <v>100</v>
       </c>
       <c r="D37" s="2">
-        <v>58.823529411764703</v>
+        <v>40</v>
       </c>
       <c r="E37" s="2">
         <v>40</v>
       </c>
       <c r="F37" s="2">
-        <v>40</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="G37" s="2">
-        <v>40</v>
+        <v>49.999999999999993</v>
       </c>
       <c r="H37" s="2">
-        <v>100</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="I37" s="2">
+        <v>66.666666666666657</v>
+      </c>
+      <c r="J37" s="2">
+        <v>66.666666666666657</v>
+      </c>
+      <c r="K37" s="2">
+        <v>50</v>
+      </c>
+      <c r="L37" s="2">
+        <v>100</v>
+      </c>
+      <c r="M37" s="2">
+        <v>66.666666666666671</v>
+      </c>
+      <c r="N37" s="2">
         <v>60</v>
       </c>
-      <c r="J37" s="2">
-        <v>75</v>
-      </c>
-      <c r="K37" s="2">
-        <v>66.666666666666657</v>
-      </c>
-      <c r="L37" s="2">
-        <v>80</v>
-      </c>
-      <c r="M37" s="2">
-        <v>72.72727272727272</v>
-      </c>
-      <c r="N37" s="2">
-        <v>80</v>
-      </c>
       <c r="O37" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="P37" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B38" s="2">
-        <v>45.454545454545453</v>
+        <v>41.666666666666671</v>
       </c>
       <c r="C38" s="2">
         <v>100</v>
       </c>
       <c r="D38" s="2">
-        <v>62.5</v>
+        <v>58.823529411764703</v>
       </c>
       <c r="E38" s="2">
-        <v>44.444444444444443</v>
+        <v>40</v>
       </c>
       <c r="F38" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="G38" s="2">
-        <v>57.142857142857153</v>
+        <v>40</v>
       </c>
       <c r="H38" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="I38" s="2">
         <v>60</v>
       </c>
       <c r="J38" s="2">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="K38" s="2">
-        <v>50</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="L38" s="2">
         <v>80</v>
       </c>
       <c r="M38" s="2">
-        <v>61.53846153846154</v>
+        <v>72.72727272727272</v>
       </c>
       <c r="N38" s="2">
-        <v>57.142857142857139</v>
+        <v>80</v>
       </c>
       <c r="O38" s="2">
         <v>80</v>
       </c>
       <c r="P38" s="2">
-        <v>66.666666666666657</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B39" s="2">
-        <v>90.909090909090907</v>
+        <v>45.454545454545453</v>
       </c>
       <c r="C39" s="2">
         <v>100</v>
       </c>
       <c r="D39" s="2">
-        <v>95.238095238095227</v>
+        <v>62.5</v>
       </c>
       <c r="E39" s="2">
-        <v>88.888888888888886</v>
+        <v>44.444444444444443</v>
       </c>
       <c r="F39" s="2">
         <v>80</v>
       </c>
       <c r="G39" s="2">
-        <v>84.21052631578948</v>
+        <v>57.142857142857153</v>
       </c>
       <c r="H39" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="I39" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J39" s="2">
-        <v>57.142857142857153</v>
+        <v>60</v>
       </c>
       <c r="K39" s="2">
-        <v>87.5</v>
+        <v>50</v>
       </c>
       <c r="L39" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="M39" s="2">
-        <v>77.777777777777771</v>
+        <v>61.53846153846154</v>
       </c>
       <c r="N39" s="2">
-        <v>100</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="O39" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="P39" s="2">
-        <v>82.352941176470594</v>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B40" s="2">
-        <v>54.54545454545454</v>
+        <v>90.909090909090907</v>
       </c>
       <c r="C40" s="2">
         <v>100</v>
       </c>
       <c r="D40" s="2">
-        <v>70.588235294117652</v>
+        <v>95.238095238095227</v>
       </c>
       <c r="E40" s="2">
-        <v>50</v>
+        <v>88.888888888888886</v>
       </c>
       <c r="F40" s="2">
-        <v>66.666666666666657</v>
+        <v>80</v>
       </c>
       <c r="G40" s="2">
-        <v>57.142857142857139</v>
+        <v>84.21052631578948</v>
       </c>
       <c r="H40" s="2">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="I40" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J40" s="2">
-        <v>60</v>
+        <v>57.142857142857153</v>
       </c>
       <c r="K40" s="2">
-        <v>71.428571428571431</v>
+        <v>87.5</v>
       </c>
       <c r="L40" s="2">
-        <v>83.333333333333343</v>
+        <v>70</v>
       </c>
       <c r="M40" s="2">
-        <v>76.923076923076934</v>
+        <v>77.777777777777771</v>
       </c>
       <c r="N40" s="2">
-        <v>83.333333333333343</v>
+        <v>100</v>
       </c>
       <c r="O40" s="2">
-        <v>83.333333333333343</v>
+        <v>70</v>
       </c>
       <c r="P40" s="2">
-        <v>83.333333333333343</v>
+        <v>82.352941176470594</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B41" s="2">
         <v>54.54545454545454</v>
@@ -2542,7 +2517,7 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B42" s="2">
         <v>54.54545454545454</v>
@@ -2554,13 +2529,13 @@
         <v>70.588235294117652</v>
       </c>
       <c r="E42" s="2">
-        <v>66.666666666666657</v>
+        <v>50</v>
       </c>
       <c r="F42" s="2">
-        <v>100</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="G42" s="2">
-        <v>80</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="H42" s="2">
         <v>75</v>
@@ -2572,69 +2547,69 @@
         <v>60</v>
       </c>
       <c r="K42" s="2">
-        <v>50</v>
+        <v>71.428571428571431</v>
       </c>
       <c r="L42" s="2">
-        <v>66.666666666666657</v>
+        <v>83.333333333333343</v>
       </c>
       <c r="M42" s="2">
-        <v>57.142857142857139</v>
+        <v>76.923076923076934</v>
       </c>
       <c r="N42" s="2">
-        <v>100</v>
+        <v>83.333333333333343</v>
       </c>
       <c r="O42" s="2">
-        <v>66.666666666666657</v>
+        <v>83.333333333333343</v>
       </c>
       <c r="P42" s="2">
-        <v>80</v>
+        <v>83.333333333333343</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B43" s="2">
-        <v>72.727272727272734</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="C43" s="2">
         <v>100</v>
       </c>
       <c r="D43" s="2">
-        <v>84.210526315789465</v>
+        <v>70.588235294117652</v>
       </c>
       <c r="E43" s="2">
         <v>66.666666666666657</v>
       </c>
       <c r="F43" s="2">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="G43" s="2">
-        <v>70.588235294117638</v>
+        <v>80</v>
       </c>
       <c r="H43" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="I43" s="2">
         <v>50</v>
       </c>
       <c r="J43" s="2">
-        <v>66.666666666666671</v>
+        <v>60</v>
       </c>
       <c r="K43" s="2">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="L43" s="2">
-        <v>75</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="M43" s="2">
-        <v>75</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="N43" s="2">
-        <v>85.714285714285708</v>
+        <v>100</v>
       </c>
       <c r="O43" s="2">
-        <v>75</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="P43" s="2">
         <v>80</v>
@@ -2642,7 +2617,7 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B44" s="2">
         <v>72.727272727272734</v>
@@ -2672,77 +2647,77 @@
         <v>66.666666666666671</v>
       </c>
       <c r="K44" s="2">
-        <v>87.5</v>
+        <v>75</v>
       </c>
       <c r="L44" s="2">
-        <v>87.5</v>
+        <v>75</v>
       </c>
       <c r="M44" s="2">
-        <v>87.5</v>
+        <v>75</v>
       </c>
       <c r="N44" s="2">
-        <v>100</v>
+        <v>85.714285714285708</v>
       </c>
       <c r="O44" s="2">
-        <v>87.5</v>
+        <v>75</v>
       </c>
       <c r="P44" s="2">
-        <v>93.333333333333329</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B45" s="2">
-        <v>63.636363636363633</v>
+        <v>72.727272727272734</v>
       </c>
       <c r="C45" s="2">
         <v>100</v>
       </c>
       <c r="D45" s="2">
-        <v>77.777777777777771</v>
+        <v>84.210526315789465</v>
       </c>
       <c r="E45" s="2">
-        <v>62.5</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="F45" s="2">
-        <v>71.428571428571431</v>
+        <v>75</v>
       </c>
       <c r="G45" s="2">
+        <v>70.588235294117638</v>
+      </c>
+      <c r="H45" s="2">
+        <v>100</v>
+      </c>
+      <c r="I45" s="2">
+        <v>50</v>
+      </c>
+      <c r="J45" s="2">
         <v>66.666666666666671</v>
       </c>
-      <c r="H45" s="2">
-        <v>75</v>
-      </c>
-      <c r="I45" s="2">
-        <v>42.857142857142847</v>
-      </c>
-      <c r="J45" s="2">
-        <v>54.54545454545454</v>
-      </c>
       <c r="K45" s="2">
-        <v>71.428571428571431</v>
+        <v>87.5</v>
       </c>
       <c r="L45" s="2">
-        <v>71.428571428571431</v>
+        <v>87.5</v>
       </c>
       <c r="M45" s="2">
-        <v>71.428571428571431</v>
+        <v>87.5</v>
       </c>
       <c r="N45" s="2">
-        <v>83.333333333333343</v>
+        <v>100</v>
       </c>
       <c r="O45" s="2">
-        <v>71.428571428571431</v>
+        <v>87.5</v>
       </c>
       <c r="P45" s="2">
-        <v>76.923076923076934</v>
+        <v>93.333333333333329</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B46" s="2">
         <v>63.636363636363633</v>
@@ -2754,195 +2729,195 @@
         <v>77.777777777777771</v>
       </c>
       <c r="E46" s="2">
-        <v>55.555555555555557</v>
+        <v>62.5</v>
       </c>
       <c r="F46" s="2">
         <v>71.428571428571431</v>
       </c>
       <c r="G46" s="2">
-        <v>62.500000000000007</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="H46" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="I46" s="2">
-        <v>57.142857142857139</v>
+        <v>42.857142857142847</v>
       </c>
       <c r="J46" s="2">
-        <v>72.72727272727272</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="K46" s="2">
-        <v>75</v>
+        <v>71.428571428571431</v>
       </c>
       <c r="L46" s="2">
-        <v>85.714285714285708</v>
+        <v>71.428571428571431</v>
       </c>
       <c r="M46" s="2">
-        <v>80</v>
+        <v>71.428571428571431</v>
       </c>
       <c r="N46" s="2">
-        <v>85.714285714285708</v>
+        <v>83.333333333333343</v>
       </c>
       <c r="O46" s="2">
-        <v>85.714285714285708</v>
+        <v>71.428571428571431</v>
       </c>
       <c r="P46" s="2">
-        <v>85.714285714285708</v>
+        <v>76.923076923076934</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B47" s="2">
-        <v>54.54545454545454</v>
+        <v>63.636363636363633</v>
       </c>
       <c r="C47" s="2">
         <v>100</v>
       </c>
       <c r="D47" s="2">
-        <v>70.588235294117652</v>
+        <v>77.777777777777771</v>
       </c>
       <c r="E47" s="2">
-        <v>66.666666666666657</v>
+        <v>55.555555555555557</v>
       </c>
       <c r="F47" s="2">
-        <v>100</v>
+        <v>71.428571428571431</v>
       </c>
       <c r="G47" s="2">
-        <v>80</v>
+        <v>62.500000000000007</v>
       </c>
       <c r="H47" s="2">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="I47" s="2">
-        <v>50</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="J47" s="2">
-        <v>60</v>
+        <v>72.72727272727272</v>
       </c>
       <c r="K47" s="2">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="L47" s="2">
-        <v>66.666666666666657</v>
+        <v>85.714285714285708</v>
       </c>
       <c r="M47" s="2">
-        <v>57.142857142857139</v>
+        <v>80</v>
       </c>
       <c r="N47" s="2">
-        <v>100</v>
+        <v>85.714285714285708</v>
       </c>
       <c r="O47" s="2">
-        <v>66.666666666666657</v>
+        <v>85.714285714285708</v>
       </c>
       <c r="P47" s="2">
-        <v>80</v>
+        <v>85.714285714285708</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B48" s="2">
-        <v>27.777777777777779</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="C48" s="2">
         <v>100</v>
       </c>
       <c r="D48" s="2">
-        <v>43.478260869565219</v>
+        <v>70.588235294117652</v>
       </c>
       <c r="E48" s="2">
-        <v>42.857142857142847</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="F48" s="2">
+        <v>100</v>
+      </c>
+      <c r="G48" s="2">
+        <v>80</v>
+      </c>
+      <c r="H48" s="2">
+        <v>75</v>
+      </c>
+      <c r="I48" s="2">
+        <v>50</v>
+      </c>
+      <c r="J48" s="2">
         <v>60</v>
       </c>
-      <c r="G48" s="2">
-        <v>49.999999999999993</v>
-      </c>
-      <c r="H48" s="2">
-        <v>100</v>
-      </c>
-      <c r="I48" s="2">
-        <v>80</v>
-      </c>
-      <c r="J48" s="2">
-        <v>88.888888888888886</v>
-      </c>
       <c r="K48" s="2">
-        <v>55.555555555555557</v>
+        <v>50</v>
       </c>
       <c r="L48" s="2">
-        <v>100</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="M48" s="2">
-        <v>71.428571428571431</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="N48" s="2">
-        <v>71.428571428571431</v>
+        <v>100</v>
       </c>
       <c r="O48" s="2">
-        <v>100</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="P48" s="2">
-        <v>83.333333333333329</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B49" s="2">
-        <v>38.888888888888893</v>
+        <v>27.777777777777779</v>
       </c>
       <c r="C49" s="2">
         <v>100</v>
       </c>
       <c r="D49" s="2">
-        <v>56.000000000000007</v>
+        <v>43.478260869565219</v>
       </c>
       <c r="E49" s="2">
         <v>42.857142857142847</v>
       </c>
       <c r="F49" s="2">
-        <v>42.857142857142847</v>
+        <v>60</v>
       </c>
       <c r="G49" s="2">
-        <v>42.857142857142847</v>
+        <v>49.999999999999993</v>
       </c>
       <c r="H49" s="2">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="I49" s="2">
-        <v>42.857142857142847</v>
+        <v>80</v>
       </c>
       <c r="J49" s="2">
-        <v>54.54545454545454</v>
+        <v>88.888888888888886</v>
       </c>
       <c r="K49" s="2">
         <v>55.555555555555557</v>
       </c>
       <c r="L49" s="2">
+        <v>100</v>
+      </c>
+      <c r="M49" s="2">
         <v>71.428571428571431</v>
-      </c>
-      <c r="M49" s="2">
-        <v>62.500000000000007</v>
       </c>
       <c r="N49" s="2">
         <v>71.428571428571431</v>
       </c>
       <c r="O49" s="2">
-        <v>71.428571428571431</v>
+        <v>100</v>
       </c>
       <c r="P49" s="2">
-        <v>71.428571428571431</v>
+        <v>83.333333333333329</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B50" s="2">
         <v>38.888888888888893</v>
@@ -2954,245 +2929,245 @@
         <v>56.000000000000007</v>
       </c>
       <c r="E50" s="2">
-        <v>57.142857142857139</v>
+        <v>42.857142857142847</v>
       </c>
       <c r="F50" s="2">
-        <v>57.142857142857139</v>
+        <v>42.857142857142847</v>
       </c>
       <c r="G50" s="2">
-        <v>57.142857142857139</v>
+        <v>42.857142857142847</v>
       </c>
       <c r="H50" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="I50" s="2">
+        <v>42.857142857142847</v>
+      </c>
+      <c r="J50" s="2">
+        <v>54.54545454545454</v>
+      </c>
+      <c r="K50" s="2">
+        <v>55.555555555555557</v>
+      </c>
+      <c r="L50" s="2">
         <v>71.428571428571431</v>
       </c>
-      <c r="J50" s="2">
-        <v>83.333333333333329</v>
-      </c>
-      <c r="K50" s="2">
-        <v>77.777777777777786</v>
-      </c>
-      <c r="L50" s="2">
-        <v>100</v>
-      </c>
       <c r="M50" s="2">
-        <v>87.500000000000014</v>
+        <v>62.500000000000007</v>
       </c>
       <c r="N50" s="2">
-        <v>100</v>
+        <v>71.428571428571431</v>
       </c>
       <c r="O50" s="2">
-        <v>100</v>
+        <v>71.428571428571431</v>
       </c>
       <c r="P50" s="2">
-        <v>100</v>
+        <v>71.428571428571431</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B51" s="2">
-        <v>33.333333333333329</v>
+        <v>38.888888888888893</v>
       </c>
       <c r="C51" s="2">
         <v>100</v>
       </c>
       <c r="D51" s="2">
-        <v>50</v>
+        <v>56.000000000000007</v>
       </c>
       <c r="E51" s="2">
-        <v>42.857142857142847</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="F51" s="2">
-        <v>50</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="G51" s="2">
-        <v>46.153846153846153</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="H51" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I51" s="2">
-        <v>66.666666666666657</v>
+        <v>71.428571428571431</v>
       </c>
       <c r="J51" s="2">
-        <v>72.72727272727272</v>
+        <v>83.333333333333329</v>
       </c>
       <c r="K51" s="2">
-        <v>66.666666666666657</v>
+        <v>77.777777777777786</v>
       </c>
       <c r="L51" s="2">
         <v>100</v>
       </c>
       <c r="M51" s="2">
-        <v>80</v>
+        <v>87.500000000000014</v>
       </c>
       <c r="N51" s="2">
-        <v>85.714285714285708</v>
+        <v>100</v>
       </c>
       <c r="O51" s="2">
         <v>100</v>
       </c>
       <c r="P51" s="2">
-        <v>92.307692307692292</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B52" s="2">
-        <v>27.777777777777779</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="C52" s="2">
         <v>100</v>
       </c>
       <c r="D52" s="2">
-        <v>43.478260869565219</v>
+        <v>50</v>
       </c>
       <c r="E52" s="2">
-        <v>28.571428571428569</v>
+        <v>42.857142857142847</v>
       </c>
       <c r="F52" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G52" s="2">
-        <v>33.333333333333329</v>
+        <v>46.153846153846153</v>
       </c>
       <c r="H52" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I52" s="2">
-        <v>60</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="J52" s="2">
-        <v>66.666666666666671</v>
+        <v>72.72727272727272</v>
       </c>
       <c r="K52" s="2">
-        <v>55.555555555555557</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="L52" s="2">
         <v>100</v>
       </c>
       <c r="M52" s="2">
-        <v>71.428571428571431</v>
+        <v>80</v>
       </c>
       <c r="N52" s="2">
-        <v>71.428571428571431</v>
+        <v>85.714285714285708</v>
       </c>
       <c r="O52" s="2">
         <v>100</v>
       </c>
       <c r="P52" s="2">
-        <v>83.333333333333329</v>
+        <v>92.307692307692292</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B53" s="2">
+        <v>27.777777777777779</v>
+      </c>
+      <c r="C53" s="2">
+        <v>100</v>
+      </c>
+      <c r="D53" s="2">
+        <v>43.478260869565219</v>
+      </c>
+      <c r="E53" s="2">
+        <v>28.571428571428569</v>
+      </c>
+      <c r="F53" s="2">
+        <v>40</v>
+      </c>
+      <c r="G53" s="2">
         <v>33.333333333333329</v>
       </c>
-      <c r="C53" s="2">
-        <v>100</v>
-      </c>
-      <c r="D53" s="2">
-        <v>50</v>
-      </c>
-      <c r="E53" s="2">
-        <v>57.142857142857139</v>
-      </c>
-      <c r="F53" s="2">
-        <v>66.666666666666657</v>
-      </c>
-      <c r="G53" s="2">
-        <v>61.538461538461533</v>
-      </c>
       <c r="H53" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="I53" s="2">
-        <v>83.333333333333343</v>
+        <v>60</v>
       </c>
       <c r="J53" s="2">
-        <v>90.909090909090907</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="K53" s="2">
-        <v>66.666666666666657</v>
+        <v>55.555555555555557</v>
       </c>
       <c r="L53" s="2">
         <v>100</v>
       </c>
       <c r="M53" s="2">
-        <v>80</v>
+        <v>71.428571428571431</v>
       </c>
       <c r="N53" s="2">
-        <v>85.714285714285708</v>
+        <v>71.428571428571431</v>
       </c>
       <c r="O53" s="2">
         <v>100</v>
       </c>
       <c r="P53" s="2">
-        <v>92.307692307692292</v>
+        <v>83.333333333333329</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B54" s="2">
-        <v>38.888888888888893</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="C54" s="2">
         <v>100</v>
       </c>
       <c r="D54" s="2">
-        <v>56.000000000000007</v>
+        <v>50</v>
       </c>
       <c r="E54" s="2">
         <v>57.142857142857139</v>
       </c>
       <c r="F54" s="2">
-        <v>57.142857142857139</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="G54" s="2">
-        <v>57.142857142857139</v>
+        <v>61.538461538461533</v>
       </c>
       <c r="H54" s="2">
         <v>100</v>
       </c>
       <c r="I54" s="2">
-        <v>71.428571428571431</v>
+        <v>83.333333333333343</v>
       </c>
       <c r="J54" s="2">
-        <v>83.333333333333329</v>
+        <v>90.909090909090907</v>
       </c>
       <c r="K54" s="2">
-        <v>77.777777777777786</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="L54" s="2">
         <v>100</v>
       </c>
       <c r="M54" s="2">
-        <v>87.500000000000014</v>
+        <v>80</v>
       </c>
       <c r="N54" s="2">
-        <v>100</v>
+        <v>85.714285714285708</v>
       </c>
       <c r="O54" s="2">
         <v>100</v>
       </c>
       <c r="P54" s="2">
-        <v>100</v>
+        <v>92.307692307692292</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B55" s="2">
         <v>38.888888888888893</v>
@@ -3213,36 +3188,36 @@
         <v>57.142857142857139</v>
       </c>
       <c r="H55" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I55" s="2">
-        <v>57.142857142857139</v>
+        <v>71.428571428571431</v>
       </c>
       <c r="J55" s="2">
-        <v>66.666666666666657</v>
+        <v>83.333333333333329</v>
       </c>
       <c r="K55" s="2">
-        <v>66.666666666666657</v>
+        <v>77.777777777777786</v>
       </c>
       <c r="L55" s="2">
-        <v>85.714285714285708</v>
+        <v>100</v>
       </c>
       <c r="M55" s="2">
-        <v>75</v>
+        <v>87.500000000000014</v>
       </c>
       <c r="N55" s="2">
-        <v>85.714285714285708</v>
+        <v>100</v>
       </c>
       <c r="O55" s="2">
-        <v>85.714285714285708</v>
+        <v>100</v>
       </c>
       <c r="P55" s="2">
-        <v>85.714285714285708</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B56" s="2">
         <v>38.888888888888893</v>
@@ -3290,7 +3265,65 @@
         <v>85.714285714285708</v>
       </c>
     </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="2">
+        <v>38.888888888888893</v>
+      </c>
+      <c r="C57" s="2">
+        <v>100</v>
+      </c>
+      <c r="D57" s="2">
+        <v>56.000000000000007</v>
+      </c>
+      <c r="E57" s="2">
+        <v>57.142857142857139</v>
+      </c>
+      <c r="F57" s="2">
+        <v>57.142857142857139</v>
+      </c>
+      <c r="G57" s="2">
+        <v>57.142857142857139</v>
+      </c>
+      <c r="H57" s="2">
+        <v>80</v>
+      </c>
+      <c r="I57" s="2">
+        <v>57.142857142857139</v>
+      </c>
+      <c r="J57" s="2">
+        <v>66.666666666666657</v>
+      </c>
+      <c r="K57" s="2">
+        <v>66.666666666666657</v>
+      </c>
+      <c r="L57" s="2">
+        <v>85.714285714285708</v>
+      </c>
+      <c r="M57" s="2">
+        <v>75</v>
+      </c>
+      <c r="N57" s="2">
+        <v>85.714285714285708</v>
+      </c>
+      <c r="O57" s="2">
+        <v>85.714285714285708</v>
+      </c>
+      <c r="P57" s="2">
+        <v>85.714285714285708</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/results/AlignmentResults.xlsx
+++ b/assets/results/AlignmentResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sahar1/Documents/AnonGithub/anonymousResearcher24.github.io/assets/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E23C6A4-55FA-7041-BA9A-8C4BEB4A27F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71BC388-EB1E-F140-AD71-CA8980E08A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -159,11 +159,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -481,7 +481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{387DA05A-8AF9-134A-BE0C-B72B5C0AA3FA}">
   <dimension ref="A1:P57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:P57"/>
     </sheetView>
   </sheetViews>
@@ -491,34 +491,34 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4" t="s">
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4" t="s">
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
+      <c r="A2" s="4"/>
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
@@ -3317,12 +3317,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="N1:P1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
